--- a/Global_M2/TVDataFeed/FinalData/FX_Data/India_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/India_FX.xlsx
@@ -12970,7 +12970,7 @@
         <v>81.75749999999999</v>
       </c>
       <c r="F501" t="n">
-        <v>82.59</v>
+        <v>82.093</v>
       </c>
       <c r="G501" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/India_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/India_FX.xlsx
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30407.375</v>
+        <v>30407.33333333333</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30592.375</v>
+        <v>30592.33333333333</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31138.375</v>
+        <v>31138.33333333333</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31503.375</v>
+        <v>31503.33333333333</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31868.375</v>
+        <v>31868.33333333333</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32234.375</v>
+        <v>32234.33333333333</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32419.375</v>
+        <v>32419.33333333333</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32783.375</v>
+        <v>32783.33333333334</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33329.375</v>
+        <v>33329.33333333334</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33665.375</v>
+        <v>33665.33333333334</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33695.375</v>
+        <v>33695.33333333334</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>34060.375</v>
+        <v>34060.33333333334</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34425.375</v>
+        <v>34425.33333333334</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34610.375</v>
+        <v>34610.33333333334</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34974.375</v>
+        <v>34974.33333333334</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35156.375</v>
+        <v>35156.33333333334</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35521.375</v>
+        <v>35521.33333333334</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35886.375</v>
+        <v>35886.33333333334</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36251.375</v>
+        <v>36251.33333333334</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36770.33333333334</v>
+        <v>36770.375</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37347.375</v>
+        <v>37347.33333333334</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37712.375</v>
+        <v>37712.33333333334</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>38078.375</v>
+        <v>38078.33333333334</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38443.375</v>
+        <v>38443.33333333334</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38628.375</v>
+        <v>38628.33333333334</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38992.375</v>
+        <v>38992.33333333334</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -12964,13 +12964,13 @@
         <v>82.214</v>
       </c>
       <c r="D501" t="n">
-        <v>82.89</v>
+        <v>83.262</v>
       </c>
       <c r="E501" t="n">
         <v>82.214</v>
       </c>
       <c r="F501" t="n">
-        <v>82.65300000000001</v>
+        <v>83.16</v>
       </c>
       <c r="G501" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/India_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/India_FX.xlsx
@@ -12964,13 +12964,13 @@
         <v>82.214</v>
       </c>
       <c r="D501" t="n">
-        <v>83.262</v>
+        <v>83.42100000000001</v>
       </c>
       <c r="E501" t="n">
         <v>82.214</v>
       </c>
       <c r="F501" t="n">
-        <v>83.16</v>
+        <v>82.645</v>
       </c>
       <c r="G501" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/India_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/India_FX.xlsx
@@ -12967,10 +12967,10 @@
         <v>83.47</v>
       </c>
       <c r="E501" t="n">
-        <v>83.09699999999999</v>
+        <v>82.92400000000001</v>
       </c>
       <c r="F501" t="n">
-        <v>83.175</v>
+        <v>83.239</v>
       </c>
       <c r="G501" t="n">
         <v>0</v>
